--- a/data/trans_camb/P1409-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.374254266837656</v>
+        <v>-1.261948582743243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.692842950375411</v>
+        <v>-0.6478507378539422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.05730165482584279</v>
+        <v>-0.2350919536390845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.814609751412855</v>
+        <v>-2.676332998765269</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1612575121998652</v>
+        <v>-0.009481436848753034</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9361798374127822</v>
+        <v>-1.172430175470599</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.612147485246378</v>
+        <v>3.433776793219701</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.079006070844272</v>
+        <v>8.285289144611111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.469453009147688</v>
+        <v>5.209021696509596</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.862800210908747</v>
+        <v>2.803148640170408</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.547492867050722</v>
+        <v>3.511685430934194</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.62914219269657</v>
+        <v>4.007203063446101</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.392361057430955</v>
+        <v>-0.3767197931900672</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3316161975856052</v>
+        <v>-0.2886293435640591</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1071959223813683</v>
+        <v>-0.1166817560197959</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7608299280725522</v>
+        <v>-0.7775120611628682</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0518776309403753</v>
+        <v>0.005009290579054118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3078873763607625</v>
+        <v>-0.3305085464091042</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.009931602882712</v>
+        <v>1.597912593012201</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.141621312501112</v>
+        <v>3.984419709420177</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.671857320669186</v>
+        <v>2.792020863216274</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.593655388456523</v>
+        <v>1.480237719887707</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.607483163158849</v>
+        <v>1.665095575979769</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.928527587750661</v>
+        <v>1.830932632578655</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>0.7168692421093626</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.132900035269953</v>
+        <v>4.132900035269952</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1677383014772306</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5285800397327067</v>
+        <v>0.5285800397327061</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.4777274130695456</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.354069490683812</v>
+        <v>2.354069490683813</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8868769485855468</v>
+        <v>-0.8613681399854219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.432209639196522</v>
+        <v>1.600828776983692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.112417595937774</v>
+        <v>-1.926818706794298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.716574231496464</v>
+        <v>-1.802471076927504</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8963011604947619</v>
+        <v>-0.9006483493707008</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6027685818556966</v>
+        <v>0.5544687463414381</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.502464726705922</v>
+        <v>2.518474060162408</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.291757029482079</v>
+        <v>7.595947869703405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.515311852312561</v>
+        <v>2.158818111172647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.857740978895649</v>
+        <v>2.665774935432064</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.903049957273909</v>
+        <v>1.966670803439304</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.281282266764292</v>
+        <v>4.095321647545394</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.0464261827503343</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1462990462326862</v>
+        <v>0.146299046232686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1733243408100664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8540802380843548</v>
+        <v>0.8540802380843552</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.355943922223698</v>
+        <v>-0.3421348923075941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4381808907230347</v>
+        <v>0.5257264719842798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4565034241078287</v>
+        <v>-0.4377538918969031</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3852027385652023</v>
+        <v>-0.3909544739344543</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2786684175026539</v>
+        <v>-0.2704056440208386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1398567046837406</v>
+        <v>0.1608745894287626</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.012922566504864</v>
+        <v>1.830276000135903</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.396594903059808</v>
+        <v>5.152748284711183</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.028399533304476</v>
+        <v>0.8030713126825831</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.137835917158817</v>
+        <v>1.058071245050188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9391957356320231</v>
+        <v>0.9369653000396324</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.874598306938586</v>
+        <v>1.960276544351347</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>1.069240036124343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.15093448490178</v>
+        <v>2.150934484901782</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7914024031729898</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.349066418419698</v>
+        <v>2.349066418419699</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7322511623181064</v>
+        <v>-0.7861617760178435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8041511582991887</v>
+        <v>0.9467593139995807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7758598304291077</v>
+        <v>-0.6703566622861373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2232213914738875</v>
+        <v>0.2187481839567635</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3393853107971765</v>
+        <v>-0.4365315912497936</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.069134753533009</v>
+        <v>1.090285685430809</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.151957755922907</v>
+        <v>1.958501588685384</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.563902460179342</v>
+        <v>4.65602247309254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.858929838534455</v>
+        <v>2.939911269632941</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.900477715349616</v>
+        <v>4.024668816462601</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.093161305725504</v>
+        <v>1.893697324427755</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.614017230276431</v>
+        <v>3.668722488130836</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>0.4476235856367581</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.9004610509080507</v>
+        <v>0.9004610509080513</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4244862531732992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.259973937926287</v>
+        <v>1.259973937926288</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5157334316387844</v>
+        <v>-0.4421481452191224</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3467186321913585</v>
+        <v>0.4003005022868179</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2710482928601434</v>
+        <v>-0.2394417896727091</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02798429134750966</v>
+        <v>0.03713241900902089</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1443339058471156</v>
+        <v>-0.2048629045452867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4237663584155062</v>
+        <v>0.399622932056945</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.707670671737726</v>
+        <v>2.678038161775546</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>6.100853754878703</v>
+        <v>6.268295582570756</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.83390394366867</v>
+        <v>1.876360259703002</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.57821371105552</v>
+        <v>2.518626456602601</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.475423451968304</v>
+        <v>1.415566991487653</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.604177052725338</v>
+        <v>2.571314997268143</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>0.2319729806998502</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.00026441529209</v>
+        <v>2.000264415292089</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.617824960290208</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.090914156427279</v>
+        <v>-1.264613318500849</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1730219360826835</v>
+        <v>0.4558504535544665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2319789119822248</v>
+        <v>-0.3021324126873044</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.963818254052553</v>
+        <v>2.065258479982348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2369003193362479</v>
+        <v>-0.2324810815904101</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.686039729871211</v>
+        <v>1.78679671439209</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.737430109492016</v>
+        <v>1.449760113777671</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.604832168034315</v>
+        <v>3.642686092015433</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.388176932968297</v>
+        <v>3.49936165855059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.600153068428882</v>
+        <v>5.585925806593906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.052164960497895</v>
+        <v>2.178325166065906</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.256879457526572</v>
+        <v>4.185840779987717</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>0.2240294688359989</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.931768834187016</v>
+        <v>1.931768834187015</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.9439097135512677</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6742710942447497</v>
+        <v>-0.7568859085603409</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2175385590844281</v>
+        <v>-0.03953248920972553</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1627866494888231</v>
+        <v>-0.2129865597955915</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4909168055118954</v>
+        <v>0.6070351194761426</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1916026143991666</v>
+        <v>-0.1894753643073266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.694327814699491</v>
+        <v>0.7314031767060424</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.892430676061256</v>
+        <v>3.634796063592128</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8.393282997870731</v>
+        <v>8.905858839116551</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.207087090578702</v>
+        <v>3.893735684220446</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6.309356928099384</v>
+        <v>6.580748810565728</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.261127873773398</v>
+        <v>2.360304359281472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.193921140122016</v>
+        <v>4.646289411984585</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3762466740829639</v>
+        <v>-0.3359647548762401</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.246351374009361</v>
+        <v>-0.146772146472189</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.53140882763899</v>
+        <v>-1.488850464303778</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8161701866871426</v>
+        <v>-0.5559145815904852</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3077627765643779</v>
+        <v>-0.4529839077572806</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0913938806718597</v>
+        <v>0.03798448131509503</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.388689381208575</v>
+        <v>3.303032921056451</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.023646450675048</v>
+        <v>2.93644821494661</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.252675876899266</v>
+        <v>3.530060267683636</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.510316224942691</v>
+        <v>3.739723766543822</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.905016871299402</v>
+        <v>2.772612168744924</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.855802839568244</v>
+        <v>2.793385983725628</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>1.102269601809035</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1.187805181671869</v>
+        <v>1.187805181671868</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.3338424498493786</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3730919843057806</v>
+        <v>-0.2749124349888146</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2286687431499093</v>
+        <v>-0.2135982546045991</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3959737854518965</v>
+        <v>-0.3951399696482354</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1849623689444941</v>
+        <v>-0.1478021786979147</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1533756385548928</v>
+        <v>-0.1676137219413231</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001526285870813982</v>
+        <v>-0.008523881325357946</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>6.746980032324051</v>
+        <v>7.600702842572955</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.799970394680032</v>
+        <v>5.408345523018287</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.612438303132183</v>
+        <v>2.07890087628956</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.072490943216107</v>
+        <v>2.130461790339391</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.086866969321013</v>
+        <v>1.935457893100224</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.261004402561542</v>
+        <v>2.063221918099682</v>
       </c>
     </row>
     <row r="34">
@@ -1412,19 +1412,19 @@
         <v>-1.593872356903428</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-0.4475811944264753</v>
+        <v>-0.4475811944264763</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1.435015435540202</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2.31487511197819</v>
+        <v>2.314875111978191</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.01520884125298487</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.9973809517971662</v>
+        <v>0.9973809517971669</v>
       </c>
     </row>
     <row r="35">
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.53831699034664</v>
+        <v>-4.781320575546596</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.184670476807252</v>
+        <v>-3.104406818870008</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9911511099248713</v>
+        <v>-1.166245675544648</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.03944151821122109</v>
+        <v>0.1347090407161095</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.765916379338873</v>
+        <v>-1.86671698314789</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.6749979144842312</v>
+        <v>-0.7560032740580578</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.919385919239657</v>
+        <v>0.643639542163493</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.967330191904326</v>
+        <v>2.036933174456516</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.288923647797501</v>
+        <v>3.870941865640782</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.424364682639683</v>
+        <v>4.300219358369334</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.843635069651324</v>
+        <v>1.904534052479671</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.636451492260089</v>
+        <v>2.605659089265806</v>
       </c>
     </row>
     <row r="37">
@@ -1490,19 +1490,19 @@
         <v>-0.4809686407831678</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1350625837702836</v>
+        <v>-0.1350625837702839</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>0.5727732707043726</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.9239612037070342</v>
+        <v>0.9239612037070344</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005275889670397204</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3459876905484086</v>
+        <v>0.3459876905484088</v>
       </c>
     </row>
     <row r="38">
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8432355287204187</v>
+        <v>-0.8712368410317407</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6129873604084278</v>
+        <v>-0.6434040459664081</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3451031083509558</v>
+        <v>-0.3456708372787651</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03645789509439422</v>
+        <v>0.01033542379808763</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4744057940386426</v>
+        <v>-0.4784649930929319</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1786544103525761</v>
+        <v>-0.1937879079280463</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6676908378791833</v>
+        <v>0.6328210113693455</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.264275643044331</v>
+        <v>1.242565200065769</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.206920115739251</v>
+        <v>3.409175497574311</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3.424946627620297</v>
+        <v>3.017974826835552</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.032152178096158</v>
+        <v>0.9834074919703046</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.439648522429171</v>
+        <v>1.457852804913378</v>
       </c>
     </row>
     <row r="40">
@@ -1578,13 +1578,13 @@
         <v>1.812999237153953</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3.229864071378874</v>
+        <v>3.229864071378873</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>2.231971007212581</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1.977986970967656</v>
+        <v>1.977986970967655</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.184196364140194</v>
+        <v>-0.5678949771531566</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.669710081129324</v>
+        <v>-3.141141894725064</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.169282225358987</v>
+        <v>-0.9365676175031925</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4624929239672116</v>
+        <v>0.6999034137072351</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.1905461999766785</v>
+        <v>0.005491033048345409</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1962340352760357</v>
+        <v>0.04780338098845342</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.532133117139363</v>
+        <v>6.294562231635456</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.543511795262842</v>
+        <v>2.479899535641671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.122444797014216</v>
+        <v>4.940392708991236</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.688877918702274</v>
+        <v>5.732989475540827</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.730321228138556</v>
+        <v>4.574549786202311</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.587102754264481</v>
+        <v>3.6867383566542</v>
       </c>
     </row>
     <row r="43">
@@ -1662,7 +1662,7 @@
         <v>0.7364350626664629</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6526334590417353</v>
+        <v>0.6526334590417351</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1843972336131167</v>
+        <v>-0.2187086573788493</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5971552120824221</v>
+        <v>-0.656855743047941</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3217095569627645</v>
+        <v>-0.2615307156030731</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.05027240896283399</v>
+        <v>0.09284408172266906</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03079780894257973</v>
+        <v>-0.02935301975258738</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04116099880414619</v>
+        <v>-0.004173745178008624</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4.41328901097922</v>
+        <v>3.546624674584239</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.838614943277665</v>
+        <v>1.670484505856347</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.916742673793439</v>
+        <v>2.893682454330048</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.265672643705691</v>
+        <v>3.355310574703365</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.32507738940225</v>
+        <v>2.352644123478271</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.920187184893279</v>
+        <v>1.888173430131594</v>
       </c>
     </row>
     <row r="46">
@@ -1738,13 +1738,13 @@
         <v>1.276087455554735</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>2.058388347101482</v>
+        <v>2.058388347101481</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.961378877063826</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.005494979648195</v>
+        <v>2.005494979648194</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.0527714135984515</v>
+        <v>-0.142725648215787</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.15029187612847</v>
+        <v>1.114086102193635</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.4625977759267364</v>
+        <v>0.4244674952490001</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.232681601704489</v>
+        <v>1.311899607478368</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.3969968902502057</v>
+        <v>0.3351750026793694</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.456776509874851</v>
+        <v>1.450214206026017</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.3465303945916</v>
+        <v>1.366489925646113</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.955870035982246</v>
+        <v>2.962342590005051</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.182132700412329</v>
+        <v>2.133845778179306</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.860165758783804</v>
+        <v>2.952563702760793</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.530689216388808</v>
+        <v>1.506972141350701</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.587323133294967</v>
+        <v>2.641163486989855</v>
       </c>
     </row>
     <row r="49">
@@ -1816,13 +1816,13 @@
         <v>0.471520980143824</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.7605852457189097</v>
+        <v>0.7605852457189094</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4152864467195467</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8663128594583165</v>
+        <v>0.8663128594583163</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.03424294933752089</v>
+        <v>-0.06925663211295829</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4696545075711526</v>
+        <v>0.5094971694929044</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1449123230358001</v>
+        <v>0.1391605260460572</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3834608885398516</v>
+        <v>0.4129584516739122</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.15310680617588</v>
+        <v>0.124662814626913</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5558499313627266</v>
+        <v>0.5387212423387358</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8750047328653336</v>
+        <v>0.8742365507983836</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.806259750657374</v>
+        <v>1.889967654493032</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9052480584711018</v>
+        <v>0.9544538236739308</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.256627633035833</v>
+        <v>1.31326933750668</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7448730206065145</v>
+        <v>0.715882008288547</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.236779600832941</v>
+        <v>1.282800672370299</v>
       </c>
     </row>
     <row r="52">
